--- a/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
+++ b/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.0</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-07T16:41:29-06:00</t>
+    <t>2023-08-02T11:14:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -236,10 +236,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
+++ b/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.1</t>
+    <t>4.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02T11:14:45-05:00</t>
+    <t>2024-05-18T12:39:23-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (https://www.ihe.net/ihe_domains/it_infrastructure/)</t>
+  </si>
+  <si>
+    <t>null (iti@ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE IT Infrastructure Technical Committee (iti@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -343,7 +349,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -351,43 +357,43 @@
         <v>18</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -409,38 +415,38 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
+++ b/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from DocumentReferenc" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T11:05:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
+++ b/ITI/MHD/ValueSet-DocumentReferenceStats.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from DocumentReferenc" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T14:38:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
